--- a/MCMOD.xlsx
+++ b/MCMOD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Objects\CenterWarCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC797112-73B1-4A4A-B45E-894F88DD8BEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF0DBF5-463E-4136-AE8D-54461A3FD964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61126124-031B-4E00-9D70-DF01FA58857B}"/>
   </bookViews>
@@ -828,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,95 +868,107 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1275,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229BFA4A-9680-47B8-AD18-3700F20ED5D1}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1287,7 +1299,7 @@
     <col min="4" max="4" width="12.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="7" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="43.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.875" style="1" customWidth="1"/>
@@ -1313,32 +1325,32 @@
       <c r="F1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="28">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="24" t="s">
         <v>84</v>
       </c>
       <c r="G2" s="9" t="s">
@@ -1352,17 +1364,17 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" ht="182.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="9" t="s">
+    <row r="3" spans="1:10" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="46" t="s">
         <v>55</v>
       </c>
       <c r="I3" s="9" t="s">
@@ -1372,17 +1384,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="12" t="s">
+    <row r="4" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="43" t="s">
         <v>54</v>
       </c>
       <c r="I4" s="9" t="s">
@@ -1392,65 +1404,65 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="9"/>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="9"/>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="9"/>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:10" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="31">
         <v>3</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="F8" s="18" t="s">
         <v>85</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -1467,13 +1479,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="40" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="15" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -1487,51 +1499,51 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="35"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="11"/>
       <c r="J10" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="37"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="11"/>
       <c r="J11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="26">
+      <c r="D12" s="28">
         <v>4</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -1545,13 +1557,13 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="9" t="s">
         <v>66</v>
       </c>
@@ -1563,13 +1575,13 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="14"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="9" t="s">
         <v>67</v>
       </c>
@@ -1581,22 +1593,22 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="20">
         <v>2</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="20" t="s">
         <v>87</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -1613,19 +1625,19 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="15" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="20">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -1633,15 +1645,15 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1679,12 +1691,12 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
       <c r="G19" s="12" t="s">
         <v>60</v>
       </c>
@@ -1699,13 +1711,13 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="9" t="s">
         <v>70</v>
       </c>
@@ -1717,22 +1729,22 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="20">
         <v>5</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="20" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1749,12 +1761,12 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="2" t="s">
         <v>64</v>
       </c>
@@ -1797,15 +1809,15 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="9" t="s">
         <v>101</v>
       </c>
@@ -1817,13 +1829,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="9" t="s">
         <v>104</v>
       </c>
@@ -1835,13 +1847,13 @@
       </c>
     </row>
     <row r="26" spans="1:10" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="9" t="s">
         <v>105</v>
       </c>
@@ -1853,25 +1865,25 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="20">
         <v>2</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="20" t="s">
         <v>119</v>
       </c>
       <c r="H27" s="2"/>
@@ -1881,15 +1893,15 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="21"/>
+      <c r="B28" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
@@ -1897,13 +1909,13 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
@@ -1924,50 +1936,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="A21:A22"/>
+  <mergeCells count="60">
     <mergeCell ref="G23:G26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B28:B29"/>
@@ -1984,6 +1953,50 @@
     <mergeCell ref="F27:F29"/>
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MCMOD.xlsx
+++ b/MCMOD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Objects\CenterWarCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF0DBF5-463E-4136-AE8D-54461A3FD964}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF8B0F6-38C4-4EDC-B8FA-481CCB143E9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61126124-031B-4E00-9D70-DF01FA58857B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
   <si>
     <t>英雄名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五谷之灵：史蒂夫在草丛中每3秒获得1个小麦种子，上限64个，种子可以出售给系统商店，每个1金币，手持种子对敌方英雄右键可以将种子种到敌方身上，种子将在敌方死亡前一直处于附身状态。另外，种子也会作为其他技能的消耗品。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能冷却</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收割季节：史蒂夫抡起锄头施展收割魔法，收割场上身上带有种子的敌人，每个敌人将受到30/40/50点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>耕耘：史蒂夫在草方块上右键使用锄头，会自动种下一个种子，在20/16/14/12/10秒后，种子成长为小麦，友方英雄位于小麦中会隐身，小麦的挖掘时间为1.5秒，友方英雄挖掘3个小麦可以在合成台处合成一个面包，食用面包可以回复3点生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,10 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收线：当有敌方单位拾取诱饵后3/5/8秒内，钓鱼人史蒂夫将用此技能将敌方单位拉向钓鱼人史蒂夫所在的位置，距离越远（最大30米，大于30米此技能无效），拉到他身边时受到的伤害越高，伤害为[距离(米)]+5/8/12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>深海主宰史蒂夫位于海洋区时，每5秒获得一条鱼，鱼可以丢在地上被友方英雄拾取，右键食用可立即回复5点生命，可以积累，自己最多64个，每位友方英雄最多32个，64个之后如果没有消耗，将不会再获得鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,35 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经验值相关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>230/280
-死亡丢失35%经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240/300
-死亡丢失40%经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>280/350
-死亡丢失40%经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200/260
-死亡丢失20%经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>260/300
-死亡丢失34%经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>忍者·史蒂夫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,20 +375,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>230/280
-死亡丢失30%经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剪刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>240/300
-死亡丢失25%经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>园丁史蒂夫可以使用剪刀去除树叶并收集起来，以供技能使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,22 +387,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>疾风剪法：园丁史蒂夫瞬间清空周围半径5米内的树木的树叶，并对范围内敌方单位造成70/102/140伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>植物药学：园丁史蒂夫消耗40/50/60个树叶，治疗周围半径10米内的友方单位20/40/80生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10/9/8秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生命百合：园丁史蒂夫消耗100/120/150个树叶在草方块上种下一朵生命百合，当友方英雄接触到后在3秒内回复100/120/150生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>荆棘玫瑰：园丁史蒂夫消耗60/80/100个树叶，在草方块上种下一朵荆棘玫瑰，当敌方单位接触到后在3秒内损失60/80/100生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,12 +443,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200/240
-死亡丢失20%经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小说家史蒂夫·</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五谷之灵：史蒂夫在草丛中每3秒获得1个小麦种子，上限6个，种子可以出售给系统商店，每个1金币，手持种子对敌方英雄右键可以将种子种到敌方身上，种子将在敌方死亡前一直处于附身状态。另外，种子也会作为其他技能的消耗品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收割季节：史蒂夫抡起锄头施展收割魔法，收割场上身上带有种子的敌人，每个敌人将受到3点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收线：当有敌方单位拾取诱饵后3/5/8秒内，钓鱼人史蒂夫将用此技能将敌方单位拉向钓鱼人史蒂夫所在的位置，距离越远（最大30米，大于30米此技能无效），拉到他身边时受到的伤害越高，伤害为[距离(米)/10直接取整]+2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物药学：园丁史蒂夫消耗40/50/60个树叶，治疗周围半径10米内的友方单位2/4/8生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风剪法：园丁史蒂夫瞬间清空周围半径5米内的树木的树叶，并对范围内敌方单位造成3伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命百合：园丁史蒂夫消耗10/12/15个树叶在草方块上种下一朵生命百合，当友方英雄接触到后在3秒内回复10/12/15生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -731,19 +691,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -819,6 +766,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -828,7 +832,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,9 +851,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -865,97 +866,82 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,7 +954,58 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1287,8 +1324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229BFA4A-9680-47B8-AD18-3700F20ED5D1}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1296,9 +1333,9 @@
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="46" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="57" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="56" customWidth="1"/>
     <col min="7" max="7" width="26.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="43.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
@@ -1314,608 +1351,606 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="26">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="I3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="29">
+        <v>3</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="26">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="29">
+        <v>2</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="28">
-        <v>3</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="31">
-        <v>3</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="28">
-        <v>4</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="20">
-        <v>2</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="20">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="D18" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="J18" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="12" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="C21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="29">
+        <v>5</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="20">
-        <v>5</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="A23" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="26">
         <v>3</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="E23" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="8">
         <v>0</v>
       </c>
-      <c r="J23" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="J23" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
-      <c r="B24" s="12" t="s">
-        <v>100</v>
+      <c r="B24" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="14"/>
-      <c r="H24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>80</v>
+      <c r="H24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="14"/>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="29">
+        <v>2</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="7" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="9">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="20">
-        <v>2</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>119</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
@@ -1924,53 +1959,30 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H10:H11"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="H4:H7"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="A18:A20"/>
@@ -1985,18 +1997,41 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F14"/>
     <mergeCell ref="F15:F17"/>
     <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MCMOD.xlsx
+++ b/MCMOD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Objects\CenterWarCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF8B0F6-38C4-4EDC-B8FA-481CCB143E9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC6DCE8-D53B-4CB6-BA06-69CA27411B0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61126124-031B-4E00-9D70-DF01FA58857B}"/>
+    <workbookView xWindow="-10470" yWindow="6090" windowWidth="21600" windowHeight="11385" xr2:uid="{61126124-031B-4E00-9D70-DF01FA58857B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="113">
   <si>
     <t>英雄名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深海主宰史蒂夫在水下将增加3移速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基础攻击力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深海主宰史蒂夫位于海洋区时，每5秒获得一条鱼，鱼可以丢在地上被友方英雄拾取，右键食用可立即回复5点生命，可以积累，自己最多64个，每位友方英雄最多32个，64个之后如果没有消耗，将不会再获得鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>收获日（系列）·矿工·史蒂夫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑术大师史蒂夫对非英雄单位将造成2倍普攻伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6/9/10秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,10 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绝世剑技：剑术大师史蒂夫进行一次高超的剑术攻击，100%对目标造成200%/260%/300%暴击伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>忍者·史蒂夫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剑术大师史蒂夫普通攻击后会获得3秒的2米/秒移速加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剪刀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,6 +452,30 @@
   </si>
   <si>
     <t>生命百合：园丁史蒂夫消耗10/12/15个树叶在草方块上种下一朵生命百合，当友方英雄接触到后在3秒内回复10/12/15生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑印：剑术大师史蒂夫对非英雄单位将造成2倍普攻伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑极：剑术大师史蒂夫击杀敌方英雄后在6秒内移速+2，若在此期间击杀其他英雄，获得额外2秒移速加成时间，并重置第一技能冷却</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血闻：剑术大师史蒂夫在5秒内造成的伤害会回复1/3伤害值的生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海主宰史蒂夫在水中将增加3移速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海主宰史蒂夫位于海洋区时，每5秒获得一条鱼，鱼可以丢在地上被友方英雄拾取，右键食用可立即回复5点生命，可以积累，自己最多12个，每位友方英雄最多3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观致：剑道·史蒂夫进行一次高超的剑术攻击，100%对目标造成200%/260%/300%暴击伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -872,76 +876,64 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,58 +945,70 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1324,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{229BFA4A-9680-47B8-AD18-3700F20ED5D1}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1333,10 +1337,10 @@
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="46" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="56" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="34.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="43.75" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.875" style="1" customWidth="1"/>
@@ -1351,44 +1355,44 @@
         <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="26">
+      <c r="C2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="36">
         <v>3</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="30">
         <v>0.2</v>
       </c>
-      <c r="F2" s="48" t="s">
-        <v>98</v>
+      <c r="F2" s="46" t="s">
+        <v>93</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
@@ -1402,17 +1406,17 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="167.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="45"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>13</v>
@@ -1422,17 +1426,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="37" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="37" t="s">
-        <v>106</v>
+      <c r="H4" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>14</v>
@@ -1442,65 +1446,65 @@
       </c>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="27"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="27"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="29">
+      <c r="C8" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="40">
         <v>3</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="29">
         <v>0.2</v>
       </c>
-      <c r="F8" s="50" t="s">
-        <v>98</v>
+      <c r="F8" s="49" t="s">
+        <v>93</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>17</v>
@@ -1516,17 +1520,17 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="42" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="26" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>20</v>
@@ -1536,51 +1540,51 @@
       </c>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="32"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="17"/>
       <c r="I10" s="10"/>
       <c r="J10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="34"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="10"/>
       <c r="J11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="26">
+      <c r="C12" s="23"/>
+      <c r="D12" s="36">
         <v>4</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="30">
         <v>0.2</v>
       </c>
-      <c r="F12" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
@@ -1594,15 +1598,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>29</v>
@@ -1612,41 +1616,41 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="15"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="C15" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="40">
         <v>2</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="17">
         <v>0.2</v>
       </c>
-      <c r="F15" s="52" t="s">
-        <v>100</v>
+      <c r="F15" s="51" t="s">
+        <v>95</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>35</v>
@@ -1655,26 +1659,26 @@
         <v>36</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="16" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" s="16">
+      <c r="H16" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="31">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -1682,275 +1686,277 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>102</v>
+      <c r="C18" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="E18" s="19">
         <v>0.2</v>
       </c>
-      <c r="F18" s="41" t="s">
-        <v>101</v>
+      <c r="F18" s="54" t="s">
+        <v>96</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="H18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="8" t="s">
+    </row>
+    <row r="19" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="13" t="s">
+    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="63" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="B21" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="40">
+        <v>5</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="29">
-        <v>5</v>
-      </c>
-      <c r="E21" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="J21" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="54"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>75</v>
+      <c r="A23" s="23" t="s">
+        <v>72</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="C23" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="36">
         <v>3</v>
       </c>
       <c r="E23" s="19">
         <v>0.2</v>
       </c>
-      <c r="F23" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>88</v>
+      <c r="F23" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I23" s="8">
         <v>0</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="27"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="14"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="27"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="14"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I25" s="8">
         <v>0</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="6" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I26" s="8">
         <v>0</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="29">
+      <c r="C27" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="40">
         <v>2</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>104</v>
+      <c r="E27" s="17"/>
+      <c r="F27" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>99</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="39"/>
+      <c r="B28" s="31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="17"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="18"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2">
@@ -1959,30 +1965,51 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="E2:E4"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="A18:A20"/>
@@ -1998,40 +2025,19 @@
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="E18:E20"/>
     <mergeCell ref="G23:G26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F27:F29"/>
     <mergeCell ref="G27:G29"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
